--- a/Research/2018/March 2018/Products/Products_Mar2018.xlsx
+++ b/Research/2018/March 2018/Products/Products_Mar2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>S.No</t>
   </si>
@@ -95,19 +95,34 @@
   </si>
   <si>
     <t>Check on india mart</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>B0182CXBFS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,8 +145,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +516,7 @@
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +544,14 @@
       <c r="I1" t="s">
         <v>23</v>
       </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -558,8 +580,20 @@
       <c r="I2" t="s">
         <v>24</v>
       </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Research/2018/March 2018/Products/Products_Mar2018.xlsx
+++ b/Research/2018/March 2018/Products/Products_Mar2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>S.No</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>B0182CXBFS</t>
+  </si>
+  <si>
+    <t>Captain America t shirt</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +562,7 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <v>97</v>
+        <v>1.49</v>
       </c>
       <c r="D2">
         <v>5000</v>
@@ -590,6 +593,24 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D3">
+        <v>300</v>
+      </c>
+      <c r="E3">
+        <v>280</v>
+      </c>
+      <c r="F3">
+        <v>3.91</v>
+      </c>
+      <c r="G3">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Research/2018/March 2018/Products/Products_Mar2018.xlsx
+++ b/Research/2018/March 2018/Products/Products_Mar2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>S.No</t>
   </si>
@@ -107,13 +107,136 @@
   </si>
   <si>
     <t>Captain America t shirt</t>
+  </si>
+  <si>
+    <t>Pearl Headset</t>
+  </si>
+  <si>
+    <t>Antitheft MultiUtility Bag</t>
+  </si>
+  <si>
+    <t>bike mask</t>
+  </si>
+  <si>
+    <t>bluetooth lamp speaker</t>
+  </si>
+  <si>
+    <t>https://www.alibaba.com/product-detail/Innovation-Design-High-Quality-Outdoor-Lamp_60696682736.html?spm=a2700.7724838.2017115.194.6ba737acuHqZSK</t>
+  </si>
+  <si>
+    <t>Bluetooth aux mini 3.5 mm</t>
+  </si>
+  <si>
+    <t>https://www.alibaba.com/product-detail/China-Factory-Wireless-Blue-tooth-AUX_60720732201.html?spm=a2700.7724838.2017115.227.6ba737acuHqZSK</t>
+  </si>
+  <si>
+    <t>Generic (unbranded) Universal Car/Bike Tyre LED Light with Motion Sensor (Set of 4)</t>
+  </si>
+  <si>
+    <t>https://www.alibaba.com/product-detail/cheapest-bike-decoration-4-colors-hot_60052312543.html?spm=a2700.7724838.2017115.1.6ba737acuHqZSK</t>
+  </si>
+  <si>
+    <t>car trunk led light</t>
+  </si>
+  <si>
+    <t>sleep mask</t>
+  </si>
+  <si>
+    <t>Rose wall sticker</t>
+  </si>
+  <si>
+    <t>Microfiber sponge multipurpose</t>
+  </si>
+  <si>
+    <t>https://www.alibaba.com/product-detail/Microfiber-Sponge-Wash-Pad_759926521.html?spm=a2700.7724838.2017115.220.2a805c97AHABfc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobby Single-Sided Microfiber Cleaning Gloves Pack </t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Sobby-Single-Sided-Microfiber-Cleaning-Multicolor/dp/B01GBDWEIA/ref=zg_bs_home-improvement_75?_encoding=UTF8&amp;psc=1&amp;refRID=G5ETQSBM8V86PMS21EM7</t>
+  </si>
+  <si>
+    <t>Bathroom cosmetic rack</t>
+  </si>
+  <si>
+    <t>https://www.alibaba.com/product-detail/Plastic-bathroom-kitchen-organizer-racks-for_60674305542.html?spm=a2700.7724838.2017115.203.2a805c97AHABfc</t>
+  </si>
+  <si>
+    <t>Noise reduction ear plugs</t>
+  </si>
+  <si>
+    <t>https://www.alibaba.com/product-detail/Eco-Friendly-Comfortable-Ear-Plugs-for_60724603102.html?spm=a2700.7724838.2017115.60.2a805c97AHABfc</t>
+  </si>
+  <si>
+    <t>apron</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Yellow-WeavesTM-Waterproof-Cotton-Kitchen/dp/B0785B3W4F/ref=zg_bs_industrial_56?_encoding=UTF8&amp;psc=1&amp;refRID=TZHXWX5XX1XG3X70ZCR6</t>
+  </si>
+  <si>
+    <t>Diary planner</t>
+  </si>
+  <si>
+    <t>Diary</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/COI-Sticky-Notes-Holder-Diary/dp/B00UGZWM2I/ref=zg_bs_3591128031_1?_encoding=UTF8&amp;psc=1&amp;refRID=PWF8J0FCHXHRAXV6VGZW</t>
+  </si>
+  <si>
+    <t>Magnetic fridge planner</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Lifekrafts-Magnetic-Planner-Sheet-Refrigerator/dp/B0779Z264Z/ref=zg_bs_office_84?_encoding=UTF8&amp;psc=1&amp;refRID=JNEMRDZJ3FXQDGS10WQ9</t>
+  </si>
+  <si>
+    <t>Multifunctional 3-In-1 Hand-Held Folding Lighted High-Powered Magnifier Glass With 3X Zoom &amp; 2 LED Lights</t>
+  </si>
+  <si>
+    <t>Wireless Karoke</t>
+  </si>
+  <si>
+    <t>LED Baloons</t>
+  </si>
+  <si>
+    <t>Barrel O Slime Toy ( Set of 6 )</t>
+  </si>
+  <si>
+    <t>Flying Sensor Ball, Multi Color</t>
+  </si>
+  <si>
+    <t>Generic Night Scope Binocular with Pop-Up Light</t>
+  </si>
+  <si>
+    <t>Zest 4 Toyz Steering Remote Control Racing Car, Assorted Design &amp; Colors</t>
+  </si>
+  <si>
+    <t>Die-Cast Metal 1999 Lincoln Town Limousine Car, Multi Color</t>
+  </si>
+  <si>
+    <t>Jewellery Organizer Dress Shape Double Sided (Black)</t>
+  </si>
+  <si>
+    <t>Batman Classic Logo Keychain (Silver)</t>
+  </si>
+  <si>
+    <t>Multi functional Foldable Travel Luggage Kit Bag (Green)</t>
+  </si>
+  <si>
+    <t>Oriflame Light Weight Luxury pouch (Cosmetic)</t>
+  </si>
+  <si>
+    <t>MENTAL MIND® BlendMaster All-rounder Makeup Blender Sponge(Pack of 1-Random color)</t>
+  </si>
+  <si>
+    <t>Simply Straight 2 In 1 Ceramic Hair Straightener Brush-1Pc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +249,14 @@
       <color rgb="FF333333"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,14 +276,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,10 +638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,8 +747,197 @@
         <v>150</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="C17" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Research/2018/March 2018/Products/Products_Mar2018.xlsx
+++ b/Research/2018/March 2018/Products/Products_Mar2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>S.No</t>
   </si>
@@ -230,6 +230,39 @@
   </si>
   <si>
     <t>Simply Straight 2 In 1 Ceramic Hair Straightener Brush-1Pc</t>
+  </si>
+  <si>
+    <t>Hot selling Mini converter adapter HDMI to AV 1080p</t>
+  </si>
+  <si>
+    <t>Captain America t mouse pad</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/PrintVoo-Superhero-Captain-Shield-Mousepad/dp/B06Y2C4P14/ref=zg_bsnr_computers_51?_encoding=UTF8&amp;psc=1&amp;refRID=KD20H9JYY383X7QCK9DG</t>
+  </si>
+  <si>
+    <t>laptop skins</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/100yellow-Printed-Gaming-Laptop-Lenovo/dp/B078XBY8JM/ref=zg_bsnr_computers_97?_encoding=UTF8&amp;psc=1&amp;refRID=NDD5FSHNC11P1WQ5W4BB</t>
+  </si>
+  <si>
+    <t>Mobile Batman Ring Holder</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/CHRONEX-Universal-Cellphone-Kickstand-Smartphones/dp/B078MKGK8L/ref=zg_bsnr_electronics_44?_encoding=UTF8&amp;psc=1&amp;refRID=4NP2N50JP3B8RT5N81S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gorilla Tripod / Flexible Mini Tripod 10INCH For Phone/DSLR Camera With Universal mobile attachment ,Universal Mobile Lens Kit &amp; Bluetooth Remote By BURGEON™.</t>
+  </si>
+  <si>
+    <t>CELLBELL® Supercharge 3.4A / 17 Watts / 3 USB Universal Wall Charger Adapter [ Indian Plugs / Multi Protect Features / With 1.2M - 2.4A Micro USB Cable] for Smartphones &amp; Tablets - white (</t>
+  </si>
+  <si>
+    <t>SYL Plus Bluetooth Smart Watch Compatible with all 3G , 4G Phone With Camera and Sim Card Support Compatible With All Android And IOS Smartphones A1 (Black)</t>
+  </si>
+  <si>
+    <t>Mobile Gabbar Mobile Holder / Mobile Stand / Car Stand / Car Mobile Stand Adjustable Car Windshield/Dashboard/Working Desk Mount With Quick One Touch Technology for Mobiles Phones.(Black )</t>
   </si>
 </sst>
 </file>
@@ -638,10 +671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,22 +955,74 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
     <hyperlink ref="C17" r:id="rId2"/>
+    <hyperlink ref="C36" r:id="rId3"/>
+    <hyperlink ref="C37" r:id="rId4"/>
+    <hyperlink ref="C38" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Research/2018/March 2018/Products/Products_Mar2018.xlsx
+++ b/Research/2018/March 2018/Products/Products_Mar2018.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>S.No</t>
   </si>
@@ -263,6 +263,13 @@
   </si>
   <si>
     <t>Mobile Gabbar Mobile Holder / Mobile Stand / Car Stand / Car Mobile Stand Adjustable Car Windshield/Dashboard/Working Desk Mount With Quick One Touch Technology for Mobiles Phones.(Black )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 modes selfie beauty ring light (rechargeable) LED flash white light for iphone, android &amp; ipad series
+</t>
+  </si>
+  <si>
+    <t>Car motorcycle wheel tire brush + hub clean brush cleaning tool kit,set of 2</t>
   </si>
 </sst>
 </file>
@@ -313,10 +320,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -671,10 +681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,6 +1024,16 @@
         <v>80</v>
       </c>
     </row>
+    <row r="43" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>

--- a/Research/2018/March 2018/Products/Products_Mar2018.xlsx
+++ b/Research/2018/March 2018/Products/Products_Mar2018.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>S.No</t>
   </si>
@@ -270,6 +271,12 @@
   </si>
   <si>
     <t>Car motorcycle wheel tire brush + hub clean brush cleaning tool kit,set of 2</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>PRV</t>
   </si>
 </sst>
 </file>
@@ -683,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,4 +1052,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Research/2018/March 2018/Products/Products_Mar2018.xlsx
+++ b/Research/2018/March 2018/Products/Products_Mar2018.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t>S.No</t>
   </si>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>PRV</t>
+  </si>
+  <si>
+    <t>Captain America T Shirt</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -691,7 +703,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,19 +1068,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="55.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1078,13 +1091,41 @@
       <c r="C1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
+      </c>
+      <c r="C2">
+        <v>78.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3">
+        <v>81.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Research/2018/March 2018/Products/Products_Mar2018.xlsx
+++ b/Research/2018/March 2018/Products/Products_Mar2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
   <si>
     <t>S.No</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Anti Theft Bag</t>
   </si>
 </sst>
 </file>
@@ -702,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,6 +1130,29 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Research/2018/March 2018/Products/Products_Mar2018.xlsx
+++ b/Research/2018/March 2018/Products/Products_Mar2018.xlsx
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +894,7 @@
       <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -923,7 +923,7 @@
       <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1063,9 +1063,11 @@
     <hyperlink ref="C36" r:id="rId3"/>
     <hyperlink ref="C37" r:id="rId4"/>
     <hyperlink ref="C38" r:id="rId5"/>
+    <hyperlink ref="C16" r:id="rId6"/>
+    <hyperlink ref="C20" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
